--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>123.7408105</v>
+        <v>117.678329</v>
       </c>
       <c r="H2">
-        <v>247.481621</v>
+        <v>235.356658</v>
       </c>
       <c r="I2">
-        <v>0.02525332733072527</v>
+        <v>0.02149241463557357</v>
       </c>
       <c r="J2">
-        <v>0.01706726377585207</v>
+        <v>0.01451528706398254</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>249.838388476783</v>
+        <v>1275.208620627297</v>
       </c>
       <c r="R2">
-        <v>999.353553907132</v>
+        <v>5100.834482509189</v>
       </c>
       <c r="S2">
-        <v>0.0001003908988369287</v>
+        <v>0.0003969352940989759</v>
       </c>
       <c r="T2">
-        <v>4.620206503960861E-05</v>
+        <v>0.0001832259886447414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>123.7408105</v>
+        <v>117.678329</v>
       </c>
       <c r="H3">
-        <v>247.481621</v>
+        <v>235.356658</v>
       </c>
       <c r="I3">
-        <v>0.02525332733072527</v>
+        <v>0.02149241463557357</v>
       </c>
       <c r="J3">
-        <v>0.01706726377585207</v>
+        <v>0.01451528706398254</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>17285.94983698224</v>
+        <v>16439.05259529468</v>
       </c>
       <c r="R3">
-        <v>103715.6990218935</v>
+        <v>98634.31557176809</v>
       </c>
       <c r="S3">
-        <v>0.00694589831436561</v>
+        <v>0.00511699816882664</v>
       </c>
       <c r="T3">
-        <v>0.004794979167386131</v>
+        <v>0.003543022234284401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.7408105</v>
+        <v>117.678329</v>
       </c>
       <c r="H4">
-        <v>247.481621</v>
+        <v>235.356658</v>
       </c>
       <c r="I4">
-        <v>0.02525332733072527</v>
+        <v>0.02149241463557357</v>
       </c>
       <c r="J4">
-        <v>0.01706726377585207</v>
+        <v>0.01451528706398254</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>23059.70063332223</v>
+        <v>17665.97430640952</v>
       </c>
       <c r="R4">
-        <v>138358.2037999334</v>
+        <v>105995.8458384571</v>
       </c>
       <c r="S4">
-        <v>0.009265926215757827</v>
+        <v>0.005498903154693361</v>
       </c>
       <c r="T4">
-        <v>0.006396569768262397</v>
+        <v>0.003807454194520989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.7408105</v>
+        <v>117.678329</v>
       </c>
       <c r="H5">
-        <v>247.481621</v>
+        <v>235.356658</v>
       </c>
       <c r="I5">
-        <v>0.02525332733072527</v>
+        <v>0.02149241463557357</v>
       </c>
       <c r="J5">
-        <v>0.01706726377585207</v>
+        <v>0.01451528706398254</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>3707.686058904507</v>
+        <v>3820.923906568367</v>
       </c>
       <c r="R5">
-        <v>14830.74423561803</v>
+        <v>15283.69562627347</v>
       </c>
       <c r="S5">
-        <v>0.001489834842147017</v>
+        <v>0.00118934230058565</v>
       </c>
       <c r="T5">
-        <v>0.0006856542482696769</v>
+        <v>0.0005490023741942154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.7408105</v>
+        <v>117.678329</v>
       </c>
       <c r="H6">
-        <v>247.481621</v>
+        <v>235.356658</v>
       </c>
       <c r="I6">
-        <v>0.02525332733072527</v>
+        <v>0.02149241463557357</v>
       </c>
       <c r="J6">
-        <v>0.01706726377585207</v>
+        <v>0.01451528706398254</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>773.8398039829443</v>
+        <v>6129.892439635069</v>
       </c>
       <c r="R6">
-        <v>4643.038823897667</v>
+        <v>36779.35463781041</v>
       </c>
       <c r="S6">
-        <v>0.0003109469043219502</v>
+        <v>0.0019080569398321</v>
       </c>
       <c r="T6">
-        <v>0.0002146567457377378</v>
+        <v>0.001321143361608035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.7408105</v>
+        <v>117.678329</v>
       </c>
       <c r="H7">
-        <v>247.481621</v>
+        <v>235.356658</v>
       </c>
       <c r="I7">
-        <v>0.02525332733072527</v>
+        <v>0.02149241463557357</v>
       </c>
       <c r="J7">
-        <v>0.01706726377585207</v>
+        <v>0.01451528706398254</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>17769.82375752073</v>
+        <v>23716.25339463901</v>
       </c>
       <c r="R7">
-        <v>106618.9425451244</v>
+        <v>142297.5203678341</v>
       </c>
       <c r="S7">
-        <v>0.007140330155295937</v>
+        <v>0.007382178777536848</v>
       </c>
       <c r="T7">
-        <v>0.004929201781156516</v>
+        <v>0.005111438910730163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>209.182834</v>
       </c>
       <c r="I8">
-        <v>0.01423018150499552</v>
+        <v>0.01273484036575774</v>
       </c>
       <c r="J8">
-        <v>0.01442603531863191</v>
+        <v>0.01290105370364074</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>140.7832547521213</v>
+        <v>755.5957993592542</v>
       </c>
       <c r="R8">
-        <v>844.699528512728</v>
+        <v>4533.574796155524</v>
       </c>
       <c r="S8">
-        <v>5.656999939809952E-05</v>
+        <v>0.0002351949602497819</v>
       </c>
       <c r="T8">
-        <v>3.905210763767241E-05</v>
+        <v>0.000162849574313546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>209.182834</v>
       </c>
       <c r="I9">
-        <v>0.01423018150499552</v>
+        <v>0.01273484036575774</v>
       </c>
       <c r="J9">
-        <v>0.01442603531863191</v>
+        <v>0.01290105370364074</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>9740.585881814588</v>
@@ -1013,10 +1013,10 @@
         <v>87665.2729363313</v>
       </c>
       <c r="S9">
-        <v>0.00391399487418858</v>
+        <v>0.003031960621307959</v>
       </c>
       <c r="T9">
-        <v>0.0040529366469795</v>
+        <v>0.003149005590879111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>209.182834</v>
       </c>
       <c r="I10">
-        <v>0.01423018150499552</v>
+        <v>0.01273484036575774</v>
       </c>
       <c r="J10">
-        <v>0.01442603531863191</v>
+        <v>0.01290105370364074</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>12994.07880654955</v>
+        <v>10467.57037365797</v>
       </c>
       <c r="R10">
-        <v>116946.7092589459</v>
+        <v>94208.13336292177</v>
       </c>
       <c r="S10">
-        <v>0.005221324308488395</v>
+        <v>0.003258249715035461</v>
       </c>
       <c r="T10">
-        <v>0.005406674591014786</v>
+        <v>0.003384030286218152</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>209.182834</v>
       </c>
       <c r="I11">
-        <v>0.01423018150499552</v>
+        <v>0.01273484036575774</v>
       </c>
       <c r="J11">
-        <v>0.01442603531863191</v>
+        <v>0.01290105370364074</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>2089.271044990544</v>
+        <v>2264.001361639328</v>
       </c>
       <c r="R11">
-        <v>12535.62626994327</v>
+        <v>13584.00816983596</v>
       </c>
       <c r="S11">
-        <v>0.0008395178955457481</v>
+        <v>0.0007047176687691468</v>
       </c>
       <c r="T11">
-        <v>0.0005795464657845869</v>
+        <v>0.0004879482632128233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>209.182834</v>
       </c>
       <c r="I12">
-        <v>0.01423018150499552</v>
+        <v>0.01273484036575774</v>
       </c>
       <c r="J12">
-        <v>0.01442603531863191</v>
+        <v>0.01290105370364074</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>436.0566321519738</v>
+        <v>3632.12803222259</v>
       </c>
       <c r="R12">
-        <v>3924.509689367764</v>
+        <v>32689.15229000331</v>
       </c>
       <c r="S12">
-        <v>0.0001752177378041671</v>
+        <v>0.001130575644921692</v>
       </c>
       <c r="T12">
-        <v>0.0001814377416359229</v>
+        <v>0.001174220074545142</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>209.182834</v>
       </c>
       <c r="I13">
-        <v>0.01423018150499552</v>
+        <v>0.01273484036575774</v>
       </c>
       <c r="J13">
-        <v>0.01442603531863191</v>
+        <v>0.01290105370364074</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>10013.24752456053</v>
+        <v>14052.52532931732</v>
       </c>
       <c r="R13">
-        <v>90119.22772104474</v>
+        <v>126472.7279638558</v>
       </c>
       <c r="S13">
-        <v>0.004023556689570534</v>
+        <v>0.004374141755473696</v>
       </c>
       <c r="T13">
-        <v>0.00416638776557944</v>
+        <v>0.004542999914471969</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2238.507934333333</v>
+        <v>1405.420044</v>
       </c>
       <c r="H14">
-        <v>6715.523802999999</v>
+        <v>4216.260132</v>
       </c>
       <c r="I14">
-        <v>0.4568401756035478</v>
+        <v>0.256681672653544</v>
       </c>
       <c r="J14">
-        <v>0.4631277897554025</v>
+        <v>0.2600318455932737</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>4519.650490783979</v>
+        <v>15229.68392686129</v>
       </c>
       <c r="R14">
-        <v>27117.90294470387</v>
+        <v>91378.10356116777</v>
       </c>
       <c r="S14">
-        <v>0.001816101112262553</v>
+        <v>0.0047405569337897</v>
       </c>
       <c r="T14">
-        <v>0.00125371357383038</v>
+        <v>0.003282373388685303</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2238.507934333333</v>
+        <v>1405.420044</v>
       </c>
       <c r="H15">
-        <v>6715.523802999999</v>
+        <v>4216.260132</v>
       </c>
       <c r="I15">
-        <v>0.4568401756035478</v>
+        <v>0.256681672653544</v>
       </c>
       <c r="J15">
-        <v>0.4631277897554025</v>
+        <v>0.2600318455932737</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>312707.9554935736</v>
+        <v>196329.8953862386</v>
       </c>
       <c r="R15">
-        <v>2814371.599442163</v>
+        <v>1766969.058476147</v>
       </c>
       <c r="S15">
-        <v>0.1256533590248299</v>
+        <v>0.06111177693201487</v>
       </c>
       <c r="T15">
-        <v>0.1301138912997126</v>
+        <v>0.06347091907297087</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2238.507934333333</v>
+        <v>1405.420044</v>
       </c>
       <c r="H16">
-        <v>6715.523802999999</v>
+        <v>4216.260132</v>
       </c>
       <c r="I16">
-        <v>0.4568401756035478</v>
+        <v>0.256681672653544</v>
       </c>
       <c r="J16">
-        <v>0.4631277897554025</v>
+        <v>0.2600318455932737</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>417156.8185343606</v>
+        <v>210982.8937749187</v>
       </c>
       <c r="R16">
-        <v>3754411.366809245</v>
+        <v>1898846.043974269</v>
       </c>
       <c r="S16">
-        <v>0.167623351335016</v>
+        <v>0.06567282845782831</v>
       </c>
       <c r="T16">
-        <v>0.1735737642364817</v>
+        <v>0.06820804417088136</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2238.507934333333</v>
+        <v>1405.420044</v>
       </c>
       <c r="H17">
-        <v>6715.523802999999</v>
+        <v>4216.260132</v>
       </c>
       <c r="I17">
-        <v>0.4568401756035478</v>
+        <v>0.256681672653544</v>
       </c>
       <c r="J17">
-        <v>0.4631277897554025</v>
+        <v>0.2600318455932737</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>67073.13963225434</v>
+        <v>45632.89681730582</v>
       </c>
       <c r="R17">
-        <v>402438.8377935261</v>
+        <v>273797.3809038349</v>
       </c>
       <c r="S17">
-        <v>0.0269515538286566</v>
+        <v>0.01420419139721252</v>
       </c>
       <c r="T17">
-        <v>0.0186055328322061</v>
+        <v>0.009835017383227866</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2238.507934333333</v>
+        <v>1405.420044</v>
       </c>
       <c r="H18">
-        <v>6715.523802999999</v>
+        <v>4216.260132</v>
       </c>
       <c r="I18">
-        <v>0.4568401756035478</v>
+        <v>0.256681672653544</v>
       </c>
       <c r="J18">
-        <v>0.4631277897554025</v>
+        <v>0.2600318455932737</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>13998.99139272869</v>
+        <v>73208.66786124391</v>
       </c>
       <c r="R18">
-        <v>125990.9225345582</v>
+        <v>658878.0107511951</v>
       </c>
       <c r="S18">
-        <v>0.005625121652820217</v>
+        <v>0.0227877255831304</v>
       </c>
       <c r="T18">
-        <v>0.005824806220564946</v>
+        <v>0.02366741664136145</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2238.507934333333</v>
+        <v>1405.420044</v>
       </c>
       <c r="H19">
-        <v>6715.523802999999</v>
+        <v>4216.260132</v>
       </c>
       <c r="I19">
-        <v>0.4568401756035478</v>
+        <v>0.256681672653544</v>
       </c>
       <c r="J19">
-        <v>0.4631277897554025</v>
+        <v>0.2600318455932737</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>321461.3781191866</v>
+        <v>283240.7476605885</v>
       </c>
       <c r="R19">
-        <v>2893152.403072679</v>
+        <v>2549166.728945296</v>
       </c>
       <c r="S19">
-        <v>0.1291706886499625</v>
+        <v>0.08816459334956823</v>
       </c>
       <c r="T19">
-        <v>0.1337560815926067</v>
+        <v>0.0915680749361469</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>75.831665</v>
+        <v>93.9497185</v>
       </c>
       <c r="H20">
-        <v>151.66333</v>
+        <v>187.899437</v>
       </c>
       <c r="I20">
-        <v>0.01547591171046114</v>
+        <v>0.01715869287111833</v>
       </c>
       <c r="J20">
-        <v>0.01045927389587487</v>
+        <v>0.01158843047140694</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>153.10761989159</v>
+        <v>1018.076071905371</v>
       </c>
       <c r="R20">
-        <v>612.43047956636</v>
+        <v>4072.304287621483</v>
       </c>
       <c r="S20">
-        <v>6.152221711567716E-05</v>
+        <v>0.0003168974224924072</v>
       </c>
       <c r="T20">
-        <v>2.831385623089814E-05</v>
+        <v>0.0001462803746563877</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>75.831665</v>
+        <v>93.9497185</v>
       </c>
       <c r="H21">
-        <v>151.66333</v>
+        <v>187.899437</v>
       </c>
       <c r="I21">
-        <v>0.01547591171046114</v>
+        <v>0.01715869287111833</v>
       </c>
       <c r="J21">
-        <v>0.01045927389587487</v>
+        <v>0.01158843047140694</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>10593.29053970308</v>
+        <v>13124.28870174244</v>
       </c>
       <c r="R21">
-        <v>63559.74323821849</v>
+        <v>78745.73221045465</v>
       </c>
       <c r="S21">
-        <v>0.004256631518500015</v>
+        <v>0.004085208734789889</v>
       </c>
       <c r="T21">
-        <v>0.002938490966997537</v>
+        <v>0.002828608668893153</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>75.831665</v>
+        <v>93.9497185</v>
       </c>
       <c r="H22">
-        <v>151.66333</v>
+        <v>187.899437</v>
       </c>
       <c r="I22">
-        <v>0.01547591171046114</v>
+        <v>0.01715869287111833</v>
       </c>
       <c r="J22">
-        <v>0.01045927389587487</v>
+        <v>0.01158843047140694</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>14131.59883437469</v>
+        <v>14103.81441697228</v>
       </c>
       <c r="R22">
-        <v>84789.59300624813</v>
+        <v>84622.88650183368</v>
       </c>
       <c r="S22">
-        <v>0.005678406419586732</v>
+        <v>0.004390106554301967</v>
       </c>
       <c r="T22">
-        <v>0.0039199883519108</v>
+        <v>0.00303972067598692</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>75.831665</v>
+        <v>93.9497185</v>
       </c>
       <c r="H23">
-        <v>151.66333</v>
+        <v>187.899437</v>
       </c>
       <c r="I23">
-        <v>0.01547591171046114</v>
+        <v>0.01715869287111833</v>
       </c>
       <c r="J23">
-        <v>0.01045927389587487</v>
+        <v>0.01158843047140694</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>2272.168785770292</v>
+        <v>3050.474360763726</v>
       </c>
       <c r="R23">
-        <v>9088.675143081169</v>
+        <v>12201.8974430549</v>
       </c>
       <c r="S23">
-        <v>0.0009130104789076072</v>
+        <v>0.0009495238017882134</v>
       </c>
       <c r="T23">
-        <v>0.0004201871884507575</v>
+        <v>0.0004383017582734217</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>75.831665</v>
+        <v>93.9497185</v>
       </c>
       <c r="H24">
-        <v>151.66333</v>
+        <v>187.899437</v>
       </c>
       <c r="I24">
-        <v>0.01547591171046114</v>
+        <v>0.01715869287111833</v>
       </c>
       <c r="J24">
-        <v>0.01045927389587487</v>
+        <v>0.01158843047140694</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>474.2296461626967</v>
+        <v>4893.863415914012</v>
       </c>
       <c r="R24">
-        <v>2845.37787697618</v>
+        <v>29363.18049548407</v>
       </c>
       <c r="S24">
-        <v>0.0001905565462683726</v>
+        <v>0.001523317112866187</v>
       </c>
       <c r="T24">
-        <v>0.0001315473720189856</v>
+        <v>0.001054748550357293</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>75.831665</v>
+        <v>93.9497185</v>
       </c>
       <c r="H25">
-        <v>151.66333</v>
+        <v>187.899437</v>
       </c>
       <c r="I25">
-        <v>0.01547591171046114</v>
+        <v>0.01715869287111833</v>
       </c>
       <c r="J25">
-        <v>0.01045927389587487</v>
+        <v>0.01158843047140694</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>10889.82136810356</v>
+        <v>18934.11768534719</v>
       </c>
       <c r="R25">
-        <v>65338.92820862134</v>
+        <v>113604.7061120831</v>
       </c>
       <c r="S25">
-        <v>0.004375784530082737</v>
+        <v>0.005893639244879667</v>
       </c>
       <c r="T25">
-        <v>0.003020746160265891</v>
+        <v>0.00408077044323977</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>94.93745433333333</v>
+        <v>1510.886271333334</v>
       </c>
       <c r="H26">
-        <v>284.812363</v>
+        <v>4532.658814</v>
       </c>
       <c r="I26">
-        <v>0.01937506793868502</v>
+        <v>0.2759437059196492</v>
       </c>
       <c r="J26">
-        <v>0.01964173220743826</v>
+        <v>0.2795452841971467</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>191.6830874218993</v>
+        <v>16372.55741447264</v>
       </c>
       <c r="R26">
-        <v>1150.098524531396</v>
+        <v>98235.34448683582</v>
       </c>
       <c r="S26">
-        <v>7.702274080234184E-05</v>
+        <v>0.005096300156180853</v>
       </c>
       <c r="T26">
-        <v>5.31712992109851E-05</v>
+        <v>0.00352869087894871</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>94.93745433333333</v>
+        <v>1510.886271333334</v>
       </c>
       <c r="H27">
-        <v>284.812363</v>
+        <v>4532.658814</v>
       </c>
       <c r="I27">
-        <v>0.01937506793868502</v>
+        <v>0.2759437059196492</v>
       </c>
       <c r="J27">
-        <v>0.01964173220743826</v>
+        <v>0.2795452841971467</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>13262.27027789504</v>
+        <v>211062.9806780936</v>
       </c>
       <c r="R27">
-        <v>119360.4325010553</v>
+        <v>1899566.826102842</v>
       </c>
       <c r="S27">
-        <v>0.005329089904612044</v>
+        <v>0.06569775717768712</v>
       </c>
       <c r="T27">
-        <v>0.005518265726888125</v>
+        <v>0.0682339352321495</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>94.93745433333333</v>
+        <v>1510.886271333334</v>
       </c>
       <c r="H28">
-        <v>284.812363</v>
+        <v>4532.658814</v>
       </c>
       <c r="I28">
-        <v>0.01937506793868502</v>
+        <v>0.2759437059196492</v>
       </c>
       <c r="J28">
-        <v>0.01964173220743826</v>
+        <v>0.2795452841971467</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>17692.05540977418</v>
+        <v>226815.5766324788</v>
       </c>
       <c r="R28">
-        <v>159228.4986879677</v>
+        <v>2041340.189692309</v>
       </c>
       <c r="S28">
-        <v>0.007109081017087284</v>
+        <v>0.07060108139212069</v>
       </c>
       <c r="T28">
-        <v>0.007361444229400676</v>
+        <v>0.07332654601892261</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>94.93745433333333</v>
+        <v>1510.886271333334</v>
       </c>
       <c r="H29">
-        <v>284.812363</v>
+        <v>4532.658814</v>
       </c>
       <c r="I29">
-        <v>0.01937506793868502</v>
+        <v>0.2759437059196492</v>
       </c>
       <c r="J29">
-        <v>0.01964173220743826</v>
+        <v>0.2795452841971467</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>2844.641751393598</v>
+        <v>49057.30327156051</v>
       </c>
       <c r="R29">
-        <v>17067.85050836159</v>
+        <v>294343.8196293631</v>
       </c>
       <c r="S29">
-        <v>0.001143043485160793</v>
+        <v>0.01527010936627814</v>
       </c>
       <c r="T29">
-        <v>0.000789080036980505</v>
+        <v>0.01057306163099213</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>94.93745433333333</v>
+        <v>1510.886271333334</v>
       </c>
       <c r="H30">
-        <v>284.812363</v>
+        <v>4532.658814</v>
       </c>
       <c r="I30">
-        <v>0.01937506793868502</v>
+        <v>0.2759437059196492</v>
       </c>
       <c r="J30">
-        <v>0.01964173220743826</v>
+        <v>0.2795452841971467</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>593.7118138719998</v>
+        <v>78702.42899008721</v>
       </c>
       <c r="R30">
-        <v>5343.406324847998</v>
+        <v>708321.8609107848</v>
       </c>
       <c r="S30">
-        <v>0.0002385672714593745</v>
+        <v>0.02449777337775261</v>
       </c>
       <c r="T30">
-        <v>0.000247036102076668</v>
+        <v>0.02544347864826601</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>94.93745433333333</v>
+        <v>1510.886271333334</v>
       </c>
       <c r="H31">
-        <v>284.812363</v>
+        <v>4532.658814</v>
       </c>
       <c r="I31">
-        <v>0.01937506793868502</v>
+        <v>0.2759437059196492</v>
       </c>
       <c r="J31">
-        <v>0.01964173220743826</v>
+        <v>0.2795452841971467</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>13633.51205373756</v>
+        <v>304495.8401935045</v>
       </c>
       <c r="R31">
-        <v>122701.6084836381</v>
+        <v>2740462.561741541</v>
       </c>
       <c r="S31">
-        <v>0.005478263519563183</v>
+        <v>0.09478068444962975</v>
       </c>
       <c r="T31">
-        <v>0.005672734812881302</v>
+        <v>0.09843957178786773</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2297.234985666667</v>
+        <v>2277.680419666667</v>
       </c>
       <c r="H32">
-        <v>6891.704957000001</v>
+        <v>6833.041259000001</v>
       </c>
       <c r="I32">
-        <v>0.4688253359115853</v>
+        <v>0.415988673554357</v>
       </c>
       <c r="J32">
-        <v>0.4752779050468004</v>
+        <v>0.4214180989705492</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>4638.223108870341</v>
+        <v>24681.84015591293</v>
       </c>
       <c r="R32">
-        <v>27829.33865322205</v>
+        <v>148091.0409354776</v>
       </c>
       <c r="S32">
-        <v>0.001863746359174814</v>
+        <v>0.007682737806753417</v>
       </c>
       <c r="T32">
-        <v>0.001286604635004823</v>
+        <v>0.005319546728652918</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2297.234985666667</v>
+        <v>2277.680419666667</v>
       </c>
       <c r="H33">
-        <v>6891.704957000001</v>
+        <v>6833.041259000001</v>
       </c>
       <c r="I33">
-        <v>0.4688253359115853</v>
+        <v>0.415988673554357</v>
       </c>
       <c r="J33">
-        <v>0.4752779050468004</v>
+        <v>0.4214180989705492</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>320911.8201629576</v>
+        <v>318180.1486505913</v>
       </c>
       <c r="R33">
-        <v>2888206.381466619</v>
+        <v>2863621.337855322</v>
       </c>
       <c r="S33">
-        <v>0.1289498634296064</v>
+        <v>0.09904021101970803</v>
       </c>
       <c r="T33">
-        <v>0.1335274173615775</v>
+        <v>0.1028635319440153</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2297.234985666667</v>
+        <v>2277.680419666667</v>
       </c>
       <c r="H34">
-        <v>6891.704957000001</v>
+        <v>6833.041259000001</v>
       </c>
       <c r="I34">
-        <v>0.4688253359115853</v>
+        <v>0.415988673554357</v>
       </c>
       <c r="J34">
-        <v>0.4752779050468004</v>
+        <v>0.4214180989705492</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>428100.8895918588</v>
+        <v>341927.3889591293</v>
       </c>
       <c r="R34">
-        <v>3852908.006326729</v>
+        <v>3077346.500632164</v>
       </c>
       <c r="S34">
-        <v>0.1720209346571625</v>
+        <v>0.1064320351208278</v>
       </c>
       <c r="T34">
-        <v>0.1781274560979633</v>
+        <v>0.1105407079790984</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2297.234985666667</v>
+        <v>2277.680419666667</v>
       </c>
       <c r="H35">
-        <v>6891.704957000001</v>
+        <v>6833.041259000001</v>
       </c>
       <c r="I35">
-        <v>0.4688253359115853</v>
+        <v>0.415988673554357</v>
       </c>
       <c r="J35">
-        <v>0.4752779050468004</v>
+        <v>0.4214180989705492</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>68832.79732828318</v>
+        <v>73954.51346889058</v>
       </c>
       <c r="R35">
-        <v>412996.7839696991</v>
+        <v>443727.0808133435</v>
       </c>
       <c r="S35">
-        <v>0.0276586253832991</v>
+        <v>0.0230198855927436</v>
       </c>
       <c r="T35">
-        <v>0.01909364728780502</v>
+        <v>0.0159390259278666</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2297.234985666667</v>
+        <v>2277.680419666667</v>
       </c>
       <c r="H36">
-        <v>6891.704957000001</v>
+        <v>6833.041259000001</v>
       </c>
       <c r="I36">
-        <v>0.4688253359115853</v>
+        <v>0.415988673554357</v>
       </c>
       <c r="J36">
-        <v>0.4752779050468004</v>
+        <v>0.4214180989705492</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>14366.25365413341</v>
+        <v>118644.9204629642</v>
       </c>
       <c r="R36">
-        <v>129296.2828872007</v>
+        <v>1067804.284166678</v>
       </c>
       <c r="S36">
-        <v>0.0057726962059387</v>
+        <v>0.03693070736468967</v>
       </c>
       <c r="T36">
-        <v>0.005977619480091638</v>
+        <v>0.0383563701814701</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2297.234985666667</v>
+        <v>2277.680419666667</v>
       </c>
       <c r="H37">
-        <v>6891.704957000001</v>
+        <v>6833.041259000001</v>
       </c>
       <c r="I37">
-        <v>0.4688253359115853</v>
+        <v>0.415988673554357</v>
       </c>
       <c r="J37">
-        <v>0.4752779050468004</v>
+        <v>0.4214180989705492</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>329894.8880321688</v>
+        <v>459031.3819362815</v>
       </c>
       <c r="R37">
-        <v>2969053.99228952</v>
+        <v>4131282.437426534</v>
       </c>
       <c r="S37">
-        <v>0.1325594698764037</v>
+        <v>0.1428830966496345</v>
       </c>
       <c r="T37">
-        <v>0.1372651601843581</v>
+        <v>0.148398916209446</v>
       </c>
     </row>
   </sheetData>
